--- a/docker/ccd-definition-import/data/CCD_Definition_BULK_SCAN.template.xlsx
+++ b/docker/ccd-definition-import/data/CCD_Definition_BULK_SCAN.template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leszekg/MOJ/Reform/bulk-scan-shared-infrastructure/docker/ccd-definition-import/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A75DB9-76DD-694D-B4EF-5DC0EB4B969A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="1340" windowWidth="26820" windowHeight="13040" tabRatio="500" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="1340" windowWidth="25600" windowHeight="13040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Change History" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,10 @@
     <sheet name="AuthorisationCaseEvent" sheetId="18" r:id="rId18"/>
     <sheet name="AuthorisationCaseState" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">CaseField!$A$1:$L$18</definedName>
+  </definedNames>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="232">
   <si>
     <t>Change History</t>
   </si>
@@ -261,24 +270,15 @@
     <t>Case Reference</t>
   </si>
   <si>
-    <t>scanDocument1</t>
-  </si>
-  <si>
     <t>Scanned Documents</t>
   </si>
   <si>
     <t>Document</t>
   </si>
   <si>
-    <t>scanDocument2</t>
-  </si>
-  <si>
     <t>Collection</t>
   </si>
   <si>
-    <t>ServiceDocument</t>
-  </si>
-  <si>
     <t>scanOCRData</t>
   </si>
   <si>
@@ -321,48 +321,9 @@
     <t>Value</t>
   </si>
   <si>
-    <t>DocumentType</t>
-  </si>
-  <si>
     <t>FixedList</t>
   </si>
   <si>
-    <t>Type of document</t>
-  </si>
-  <si>
-    <t>documentsReceivedEnum</t>
-  </si>
-  <si>
-    <t>DocumentLink</t>
-  </si>
-  <si>
-    <t>Scanned document</t>
-  </si>
-  <si>
-    <t>DocumentDateAdded</t>
-  </si>
-  <si>
-    <t>Date added</t>
-  </si>
-  <si>
-    <t>DocumentComment</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>DocumentOwner</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>DocumentFileName</t>
-  </si>
-  <si>
-    <t>File name</t>
-  </si>
-  <si>
     <t>FixedLists</t>
   </si>
   <si>
@@ -370,132 +331,6 @@
   </si>
   <si>
     <t>ListElement</t>
-  </si>
-  <si>
-    <t>aos</t>
-  </si>
-  <si>
-    <t>Acknowledgement of Service</t>
-  </si>
-  <si>
-    <t>annexa</t>
-  </si>
-  <si>
-    <t>Annex A</t>
-  </si>
-  <si>
-    <t>baliffService</t>
-  </si>
-  <si>
-    <t>Baliff Service</t>
-  </si>
-  <si>
-    <t>correspondence</t>
-  </si>
-  <si>
-    <t>Correspondence</t>
-  </si>
-  <si>
-    <t>costs</t>
-  </si>
-  <si>
-    <t>Costs</t>
-  </si>
-  <si>
-    <t>daApplication</t>
-  </si>
-  <si>
-    <t>Decree Absolute application</t>
-  </si>
-  <si>
-    <t>daGranted</t>
-  </si>
-  <si>
-    <t>Decree Absolute Granted</t>
-  </si>
-  <si>
-    <t>dnApplication</t>
-  </si>
-  <si>
-    <t>Decree Nisi application (D84/D80)</t>
-  </si>
-  <si>
-    <t>dnGranted</t>
-  </si>
-  <si>
-    <t>Decree Nisi Granted</t>
-  </si>
-  <si>
-    <t>deemedService</t>
-  </si>
-  <si>
-    <t>Deemed Service</t>
-  </si>
-  <si>
-    <t>dispenseWithService</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dispense with Service </t>
-  </si>
-  <si>
-    <t>d30</t>
-  </si>
-  <si>
-    <t>D30 - Consideration of applications for DN</t>
-  </si>
-  <si>
-    <t>d79</t>
-  </si>
-  <si>
-    <t>D79 - Notice of refusal of entitlement to a DN</t>
-  </si>
-  <si>
-    <t>d84a</t>
-  </si>
-  <si>
-    <t>D84A</t>
-  </si>
-  <si>
-    <t>d9d</t>
-  </si>
-  <si>
-    <t>D9D</t>
-  </si>
-  <si>
-    <t>d9h</t>
-  </si>
-  <si>
-    <t>D9H</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>marriageCert</t>
-  </si>
-  <si>
-    <t>Marriage certificate</t>
-  </si>
-  <si>
-    <t>marriageCertTranslation</t>
-  </si>
-  <si>
-    <t>Marriage certificate translation</t>
-  </si>
-  <si>
-    <t>nameChange</t>
-  </si>
-  <si>
-    <t>Name change evidence</t>
-  </si>
-  <si>
-    <t>petition</t>
-  </si>
-  <si>
-    <t>Petition</t>
   </si>
   <si>
     <t>other</t>
@@ -826,9 +661,6 @@
     <t>bulkscan+ccd@gmail.com</t>
   </si>
   <si>
-    <t>Scanned Corespondance</t>
-  </si>
-  <si>
     <t>Nitin Prabhu</t>
   </si>
   <si>
@@ -839,12 +671,96 @@
   </si>
   <si>
     <t>BULKSCAN</t>
+  </si>
+  <si>
+    <t>attachScannedDocs</t>
+  </si>
+  <si>
+    <t>Attach scanned docs</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>ScannedDocument</t>
+  </si>
+  <si>
+    <t>scannedDocuments</t>
+  </si>
+  <si>
+    <t>exceptionRecordReference</t>
+  </si>
+  <si>
+    <t>controlNumber</t>
+  </si>
+  <si>
+    <t>fileName</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>scannedDate</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>Document control number</t>
+  </si>
+  <si>
+    <t>Document name</t>
+  </si>
+  <si>
+    <t>Document type</t>
+  </si>
+  <si>
+    <t>Scanned date</t>
+  </si>
+  <si>
+    <t>Document Url</t>
+  </si>
+  <si>
+    <t>Exception record reference</t>
+  </si>
+  <si>
+    <t>ScannedDocumentType</t>
+  </si>
+  <si>
+    <t>cherished</t>
+  </si>
+  <si>
+    <t>Cherished</t>
+  </si>
+  <si>
+    <t>Leszek Gonczar</t>
+  </si>
+  <si>
+    <t>Added attachScannedDocs case event</t>
+  </si>
+  <si>
+    <t>Removed scanDocument1 field from case</t>
+  </si>
+  <si>
+    <t>Renamed scanDocument2 field to scannedDocuments</t>
+  </si>
+  <si>
+    <t>Renamed ServiceDocument complex type to ScannedDocument</t>
+  </si>
+  <si>
+    <t>Changed the field set in ScannedDocument complex type</t>
+  </si>
+  <si>
+    <t>Luigi Bitonti</t>
+  </si>
+  <si>
+    <t>Set jurisdiction to BULKSCAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\ mmm\ yyyy"/>
     <numFmt numFmtId="165" formatCode="d/m/yy"/>
@@ -1055,7 +971,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1114,6 +1030,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFC2E0AE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1370,7 +1292,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1626,6 +1548,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
@@ -1762,7 +1690,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1814,7 +1742,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2008,28 +1936,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.83203125" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="2" max="2" width="50.5" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="17">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2038,7 +1968,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="25.5" customHeight="1">
+    <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2055,9 +1985,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>258</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2066,29 +1996,113 @@
         <v>7</v>
       </c>
       <c r="D4" s="6">
-        <v>43383</v>
+        <v>43353</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="5"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="2"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6">
+        <v>43376</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6">
+        <v>43382</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="146">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6">
+        <v>43382</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="146">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6">
+        <v>43382</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="146">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6">
+        <v>43382</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="146">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6">
+        <v>43382</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>224</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -2106,14 +2120,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AA1048563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
@@ -2128,9 +2142,9 @@
     <col min="28" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="17">
+    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="14" t="s">
@@ -2148,7 +2162,7 @@
       <c r="I1" s="48"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:27" s="19" customFormat="1" ht="12.75" customHeight="1">
+    <row r="2" spans="1:27" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="17" t="s">
         <v>12</v>
       </c>
@@ -2159,19 +2173,19 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c r="G2" s="72" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="72" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="12.75" customHeight="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
@@ -2182,22 +2196,22 @@
         <v>37</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>220</v>
+        <v>162</v>
       </c>
       <c r="G3" s="73" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="I3" s="73" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
@@ -2218,22 +2232,22 @@
       <c r="Z3" s="13"/>
       <c r="AA3" s="13"/>
     </row>
-    <row r="4" spans="1:27" ht="12.75" customHeight="1">
+    <row r="4" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15">
         <v>43101</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="G4" s="74">
         <v>1</v>
@@ -2245,49 +2259,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="12.75" customHeight="1">
+    <row r="5" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
         <v>43101</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="G5" s="74">
         <v>1</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="I5" s="74">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="12.75" customHeight="1">
+    <row r="6" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15">
         <v>43101</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="G6" s="74">
         <v>1</v>
@@ -2299,49 +2313,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="12.75" customHeight="1">
+    <row r="7" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15">
         <v>43101</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="G7" s="74">
         <v>1</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>72</v>
+        <v>208</v>
       </c>
       <c r="I7" s="74">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="12.75" customHeight="1">
+    <row r="8" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15">
         <v>43101</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="G8" s="74">
         <v>1</v>
@@ -2353,22 +2367,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="12.75" customHeight="1">
+    <row r="9" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15">
         <v>43101</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="G9" s="74">
         <v>1</v>
@@ -2380,22 +2394,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="12.75" customHeight="1">
+    <row r="10" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15">
         <v>43101</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="G10" s="74">
         <v>1</v>
@@ -2407,22 +2421,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="12.75" customHeight="1">
+    <row r="11" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>43101</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="G11" s="74">
         <v>1</v>
@@ -2434,22 +2448,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="12.75" customHeight="1">
+    <row r="12" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>43101</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="G12" s="74">
         <v>1</v>
@@ -2461,22 +2475,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="12.75" customHeight="1">
+    <row r="13" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>43101</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="G13" s="74">
         <v>1</v>
@@ -2488,22 +2502,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="12.75" customHeight="1">
+    <row r="14" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>43101</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="G14" s="74">
         <v>1</v>
@@ -2515,22 +2529,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="12.75" customHeight="1">
+    <row r="15" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>43101</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="G15" s="74">
         <v>1</v>
@@ -2542,22 +2556,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="12.75" customHeight="1">
+    <row r="16" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>43101</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="G16" s="74">
         <v>1</v>
@@ -2569,22 +2583,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="12.75" customHeight="1">
+    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>43101</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>227</v>
+        <v>169</v>
       </c>
       <c r="G17" s="74">
         <v>2</v>
@@ -2596,69 +2610,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="12.75" customHeight="1">
+    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>43101</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>227</v>
+        <v>169</v>
       </c>
       <c r="G18" s="74">
         <v>2</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="I18" s="74">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="12.75" customHeight="1">
+    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15">
         <v>43101</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>227</v>
+        <v>169</v>
       </c>
       <c r="G19" s="74">
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I19" s="74">
         <v>3</v>
       </c>
     </row>
-    <row r="1048562" ht="12.75" customHeight="1"/>
-    <row r="1048563" ht="12.75" customHeight="1"/>
+    <row r="1048562" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1048563" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A19">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A19" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B19">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B19" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2674,14 +2688,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView topLeftCell="N2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -2694,9 +2708,9 @@
     <col min="28" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="17">
+    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>228</v>
+        <v>170</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
@@ -2714,20 +2728,20 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:27" s="19" customFormat="1" ht="37">
+    <row r="2" spans="1:27" s="19" customFormat="1" ht="43" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="G2" s="75"/>
       <c r="H2" s="75"/>
@@ -2751,7 +2765,7 @@
       <c r="Z2" s="75"/>
       <c r="AA2" s="75"/>
     </row>
-    <row r="3" spans="1:27" ht="14">
+    <row r="3" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
@@ -2762,13 +2776,13 @@
         <v>37</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="G3" s="77"/>
       <c r="H3" s="77"/>
@@ -2792,13 +2806,13 @@
       <c r="Z3" s="77"/>
       <c r="AA3" s="77"/>
     </row>
-    <row r="4" spans="1:27" ht="14">
+    <row r="4" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>43101</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>47</v>
@@ -2831,19 +2845,19 @@
       <c r="Z4" s="77"/>
       <c r="AA4" s="77"/>
     </row>
-    <row r="5" spans="1:27" ht="14">
+    <row r="5" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>43101</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D5" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="F5" s="5">
         <v>2</v>
@@ -2870,13 +2884,13 @@
       <c r="Z5" s="77"/>
       <c r="AA5" s="77"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A6" s="15">
         <v>43101</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>45</v>
@@ -2890,11 +2904,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A6">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A6" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B6">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B6" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2910,14 +2924,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -2929,9 +2943,9 @@
     <col min="28" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="17">
+    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
@@ -2949,20 +2963,20 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:27" s="19" customFormat="1" ht="37">
+    <row r="2" spans="1:27" s="19" customFormat="1" ht="43" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="G2" s="75"/>
       <c r="H2" s="75"/>
@@ -2986,7 +3000,7 @@
       <c r="Z2" s="75"/>
       <c r="AA2" s="75"/>
     </row>
-    <row r="3" spans="1:27" ht="14">
+    <row r="3" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
@@ -2997,13 +3011,13 @@
         <v>37</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="G3" s="78"/>
       <c r="H3" s="78"/>
@@ -3027,13 +3041,13 @@
       <c r="Z3" s="78"/>
       <c r="AA3" s="78"/>
     </row>
-    <row r="4" spans="1:27" ht="14">
+    <row r="4" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>43101</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>47</v>
@@ -3066,19 +3080,19 @@
       <c r="Z4" s="78"/>
       <c r="AA4" s="78"/>
     </row>
-    <row r="5" spans="1:27" ht="14">
+    <row r="5" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>43101</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D5" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -3105,13 +3119,13 @@
       <c r="Z5" s="77"/>
       <c r="AA5" s="77"/>
     </row>
-    <row r="6" spans="1:27" ht="14">
+    <row r="6" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>43101</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>45</v>
@@ -3144,13 +3158,13 @@
       <c r="Z6" s="77"/>
       <c r="AA6" s="77"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A7" s="15">
         <v>43101</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
@@ -3164,11 +3178,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A7">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A7" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B5:B7">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B5:B7" xr:uid="{00000000-0002-0000-0B00-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3184,14 +3198,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.1640625" style="28" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="79" customWidth="1"/>
@@ -3201,9 +3215,9 @@
     <col min="7" max="1025" width="7.1640625" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="18">
+    <row r="1" spans="1:1024" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="80" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="B1" s="81" t="s">
         <v>9</v>
@@ -4235,20 +4249,20 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" ht="42">
+    <row r="2" spans="1:1024" ht="48" x14ac:dyDescent="0.15">
       <c r="A2" s="85"/>
       <c r="B2" s="85"/>
       <c r="C2" s="86" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="D2" s="86" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="E2" s="86" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="F2" s="86" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -5269,7 +5283,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" ht="15" customHeight="1">
+    <row r="3" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="87" t="s">
         <v>15</v>
       </c>
@@ -5280,13 +5294,13 @@
         <v>37</v>
       </c>
       <c r="D3" s="82" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="E3" s="87" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="87" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -6307,13 +6321,13 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" ht="15" customHeight="1">
+    <row r="4" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15">
         <v>43101</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>47</v>
@@ -6325,31 +6339,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" ht="12">
+    <row r="5" spans="1:1024" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
         <v>43101</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D5" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="F5" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" ht="13" customHeight="1">
+    <row r="6" spans="1:1024" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15">
         <v>43101</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>45</v>
@@ -6363,11 +6377,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A6">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A6" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B6">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B6" xr:uid="{00000000-0002-0000-0C00-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6383,14 +6397,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.5" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -6403,9 +6417,9 @@
     <col min="28" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="25.5" customHeight="1">
+    <row r="1" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
@@ -6423,21 +6437,21 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:27" s="19" customFormat="1" ht="36">
+    <row r="2" spans="1:27" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="C2" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="14">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
@@ -6448,13 +6462,13 @@
         <v>37</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="G3" s="78"/>
       <c r="H3" s="78"/>
@@ -6478,13 +6492,13 @@
       <c r="Z3" s="78"/>
       <c r="AA3" s="78"/>
     </row>
-    <row r="4" spans="1:27" ht="14">
+    <row r="4" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>43101</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>47</v>
@@ -6517,19 +6531,19 @@
       <c r="Z4" s="78"/>
       <c r="AA4" s="78"/>
     </row>
-    <row r="5" spans="1:27" ht="14">
+    <row r="5" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>43101</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D5" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -6556,13 +6570,13 @@
       <c r="Z5" s="77"/>
       <c r="AA5" s="77"/>
     </row>
-    <row r="6" spans="1:27" ht="14">
+    <row r="6" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>43101</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>45</v>
@@ -6595,13 +6609,13 @@
       <c r="Z6" s="77"/>
       <c r="AA6" s="77"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A7" s="15">
         <v>43101</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
@@ -6615,11 +6629,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A7">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A7" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B5:B7">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B5:B7" xr:uid="{00000000-0002-0000-0D00-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6635,14 +6649,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="30.83203125" customWidth="1"/>
@@ -6653,9 +6667,9 @@
     <col min="8" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="28" customFormat="1" ht="25.5" customHeight="1">
+    <row r="1" spans="1:12" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
@@ -6674,11 +6688,11 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D2"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:12" s="28" customFormat="1">
+    <row r="3" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
@@ -6686,37 +6700,37 @@
         <v>16</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="D3" s="88" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="E3" s="88" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="F3" s="88" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="15">
         <v>43101</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="89" t="s">
-        <v>257</v>
+        <v>199</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="5"/>
       <c r="C5" s="89"/>
@@ -6724,7 +6738,7 @@
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="5"/>
       <c r="C6" s="89"/>
@@ -6732,7 +6746,7 @@
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="5"/>
       <c r="C7" s="89"/>
@@ -6740,7 +6754,7 @@
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="5"/>
       <c r="C8" s="33"/>
@@ -6748,7 +6762,7 @@
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="5"/>
       <c r="C9" s="89"/>
@@ -6756,7 +6770,7 @@
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -6764,7 +6778,7 @@
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="5"/>
       <c r="C11" s="33"/>
@@ -6772,7 +6786,7 @@
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="5"/>
       <c r="C12" s="33"/>
@@ -6780,7 +6794,7 @@
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="5"/>
       <c r="C13" s="33"/>
@@ -6788,7 +6802,7 @@
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="5"/>
       <c r="C14" s="33"/>
@@ -6796,7 +6810,7 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="5"/>
       <c r="C15" s="33"/>
@@ -6804,7 +6818,7 @@
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="5"/>
       <c r="C16" s="89"/>
@@ -6812,7 +6826,7 @@
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="5"/>
       <c r="C17" s="33"/>
@@ -6820,7 +6834,7 @@
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="5"/>
       <c r="C18" s="33"/>
@@ -6828,63 +6842,63 @@
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="C20" s="5"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="C21" s="5"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="C22" s="5"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="C23" s="5"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="C24" s="5"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="C25" s="5"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="33"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="C26" s="5"/>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -6892,7 +6906,7 @@
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
@@ -6910,14 +6924,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -6927,9 +6941,9 @@
     <col min="6" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
@@ -6947,18 +6961,18 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" s="19" customFormat="1" ht="72">
+    <row r="2" spans="1:10" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.15">
       <c r="C2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="66" t="s">
         <v>15</v>
       </c>
@@ -6969,31 +6983,31 @@
         <v>37</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="E3" s="66" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="15">
         <v>43101</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="F4" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7009,14 +7023,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -7027,9 +7041,9 @@
     <col min="7" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="17">
+    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
@@ -7046,7 +7060,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:27" ht="60">
+    <row r="2" spans="1:27" ht="70" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
@@ -7059,7 +7073,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7083,7 +7097,7 @@
       <c r="Z2" s="12"/>
       <c r="AA2" s="12"/>
     </row>
-    <row r="3" spans="1:27" s="66" customFormat="1">
+    <row r="3" spans="1:27" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="66" t="s">
         <v>15</v>
       </c>
@@ -7094,292 +7108,275 @@
         <v>37</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A4" s="90">
         <v>43101</v>
       </c>
       <c r="B4" s="91"/>
       <c r="C4" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D4" s="93" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="92" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="F4" s="94" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A5" s="95">
         <v>43101</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>47</v>
       </c>
       <c r="E5" s="92" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="F5" s="96" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A6" s="95">
         <v>43101</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="92" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="F6" s="96" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A7" s="95">
         <v>43101</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="92" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="F7" s="96" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A8" s="95">
         <v>43101</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>54</v>
       </c>
       <c r="E8" s="92" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="F8" s="96" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A9" s="95">
         <v>43101</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="92" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="F9" s="96" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A10" s="95">
         <v>43101</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>58</v>
       </c>
       <c r="E10" s="92" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="F10" s="96" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A11" s="95">
         <v>43101</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="92" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="F11" s="96" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A12" s="95">
         <v>43101</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>61</v>
       </c>
       <c r="E12" s="92" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="F12" s="96" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A13" s="95">
         <v>43101</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="92" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="F13" s="96" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A14" s="95">
         <v>43101</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>66</v>
       </c>
       <c r="E14" s="92" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="F14" s="96" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A15" s="95">
         <v>43101</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>68</v>
       </c>
       <c r="E15" s="92" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="F15" s="96" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" s="95">
         <v>43101</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>70</v>
       </c>
       <c r="E16" s="92" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="F16" s="96" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="95">
         <v>43101</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>72</v>
+        <v>208</v>
       </c>
       <c r="E17" s="92" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="F17" s="96" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="95">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="97">
         <v>43101</v>
       </c>
+      <c r="B18" s="98"/>
       <c r="C18" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D18" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="99" t="s">
         <v>75</v>
       </c>
       <c r="E18" s="92" t="s">
-        <v>261</v>
-      </c>
-      <c r="F18" s="96" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="97">
-        <v>43101</v>
-      </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D19" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="92" t="s">
-        <v>261</v>
-      </c>
-      <c r="F19" s="100" t="s">
-        <v>247</v>
+        <v>202</v>
+      </c>
+      <c r="F18" s="100" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A19">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A18" xr:uid="{00000000-0002-0000-1000-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7395,14 +7392,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -7413,9 +7410,9 @@
     <col min="7" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="105" customFormat="1" ht="34">
+    <row r="1" spans="1:27" s="105" customFormat="1" ht="38" x14ac:dyDescent="0.2">
       <c r="A1" s="101" t="s">
-        <v>249</v>
+        <v>191</v>
       </c>
       <c r="B1" s="102" t="s">
         <v>9</v>
@@ -7433,7 +7430,7 @@
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
     </row>
-    <row r="2" spans="1:27" s="19" customFormat="1" ht="36">
+    <row r="2" spans="1:27" s="19" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">
@@ -7443,10 +7440,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -7470,7 +7467,7 @@
       <c r="Z2" s="18"/>
       <c r="AA2" s="18"/>
     </row>
-    <row r="3" spans="1:27" s="66" customFormat="1">
+    <row r="3" spans="1:27" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="66" t="s">
         <v>15</v>
       </c>
@@ -7481,108 +7478,126 @@
         <v>37</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A4" s="90">
         <v>43101</v>
       </c>
       <c r="B4" s="91"/>
       <c r="C4" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D4" s="106" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="E4" s="92" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="F4" s="94" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A5" s="95">
         <v>43101</v>
       </c>
       <c r="B5" s="107"/>
       <c r="C5" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="E5" s="92" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="F5" s="96" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A6" s="95">
         <v>43101</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="E6" s="92" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="F6" s="109" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A7" s="95">
         <v>43101</v>
       </c>
       <c r="B7" s="108"/>
       <c r="C7" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="E7" s="92" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="F7" s="96" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A8" s="97">
         <v>43101</v>
       </c>
       <c r="B8" s="110"/>
       <c r="C8" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D8" s="111" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="92" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" s="100" t="s">
         <v>189</v>
       </c>
-      <c r="E8" s="92" t="s">
-        <v>261</v>
-      </c>
-      <c r="F8" s="100" t="s">
-        <v>247</v>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A9" s="97">
+        <v>43101</v>
+      </c>
+      <c r="B9" s="110"/>
+      <c r="C9" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="144" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="92" t="s">
+        <v>202</v>
+      </c>
+      <c r="F9" s="100" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A8">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A9" xr:uid="{00000000-0002-0000-1100-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7598,14 +7613,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.1640625" style="112" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="112" customWidth="1"/>
@@ -7617,9 +7632,9 @@
     <col min="256" max="1025" width="7.1640625" style="112" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" s="123" customFormat="1" ht="34">
+    <row r="1" spans="1:255" s="123" customFormat="1" ht="38" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>251</v>
+        <v>193</v>
       </c>
       <c r="B1" s="115" t="s">
         <v>9</v>
@@ -7882,7 +7897,7 @@
       <c r="IT1" s="121"/>
       <c r="IU1" s="122"/>
     </row>
-    <row r="2" spans="1:255" ht="24">
+    <row r="2" spans="1:255" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="124"/>
       <c r="B2" s="124"/>
       <c r="C2" s="125" t="s">
@@ -7892,10 +7907,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="125" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="F2" s="126" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="G2" s="124"/>
       <c r="H2" s="124"/>
@@ -8147,7 +8162,7 @@
       <c r="IT2" s="128"/>
       <c r="IU2" s="129"/>
     </row>
-    <row r="3" spans="1:255">
+    <row r="3" spans="1:255" x14ac:dyDescent="0.15">
       <c r="A3" s="130" t="s">
         <v>15</v>
       </c>
@@ -8158,13 +8173,13 @@
         <v>37</v>
       </c>
       <c r="D3" s="131" t="s">
-        <v>252</v>
+        <v>194</v>
       </c>
       <c r="E3" s="131" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="F3" s="132" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="G3" s="133"/>
       <c r="H3" s="133"/>
@@ -8416,63 +8431,63 @@
       <c r="IT3" s="135"/>
       <c r="IU3" s="136"/>
     </row>
-    <row r="4" spans="1:255">
+    <row r="4" spans="1:255" x14ac:dyDescent="0.15">
       <c r="A4" s="15">
         <v>43101</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D4" s="137" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="E4" s="92" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="F4" s="138" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:255">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:255" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
         <v>43101</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D5" s="139" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="E5" s="92" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="F5" s="140" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:255">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:255" x14ac:dyDescent="0.15">
       <c r="A6" s="15">
         <v>43101</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D6" s="141" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="E6" s="92" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="F6" s="142" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A6">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A6" xr:uid="{00000000-0002-0000-1200-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8488,14 +8503,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -8506,7 +8521,7 @@
     <col min="28" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="17">
+    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -8526,7 +8541,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:27" ht="12.75" customHeight="1">
+    <row r="2" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
@@ -8561,7 +8576,7 @@
       <c r="Z2" s="12"/>
       <c r="AA2" s="12"/>
     </row>
-    <row r="3" spans="1:27" ht="12.75" customHeight="1">
+    <row r="3" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
@@ -8600,28 +8615,28 @@
       <c r="Z3" s="13"/>
       <c r="AA3" s="13"/>
     </row>
-    <row r="4" spans="1:27" ht="12.75" customHeight="1">
+    <row r="4" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15">
         <v>43101</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>253</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after LiveFrom" sqref="B4">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after LiveFrom" sqref="B4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8637,14 +8652,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView zoomScale="114" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -8658,7 +8673,7 @@
     <col min="10" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="17">
+    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -8678,7 +8693,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:27" s="19" customFormat="1" ht="60">
+    <row r="2" spans="1:27" s="19" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">
@@ -8721,7 +8736,7 @@
       <c r="Z2" s="18"/>
       <c r="AA2" s="18"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
@@ -8768,21 +8783,21 @@
       <c r="Z3" s="13"/>
       <c r="AA3" s="13"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A4" s="15">
         <v>43101</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>255</v>
+        <v>197</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -8792,7 +8807,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8808,14 +8823,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -8831,7 +8846,7 @@
     <col min="27" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17">
+    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -8850,7 +8865,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:26" s="19" customFormat="1" ht="51.75" customHeight="1">
+    <row r="2" spans="1:26" s="19" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">
@@ -8894,7 +8909,7 @@
       <c r="Y2" s="18"/>
       <c r="Z2" s="18"/>
     </row>
-    <row r="3" spans="1:26" ht="12.75" customHeight="1">
+    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
@@ -8946,13 +8961,13 @@
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
     </row>
-    <row r="4" spans="1:26" ht="12.75" customHeight="1">
+    <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15">
         <v>43101</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>45</v>
@@ -8969,13 +8984,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="12.75" customHeight="1">
+    <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
         <v>43101</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>47</v>
@@ -8992,13 +9007,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="12.75" customHeight="1">
+    <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15">
         <v>43101</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>50</v>
@@ -9015,13 +9030,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="12.75" customHeight="1">
+    <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15">
         <v>43101</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>52</v>
@@ -9038,13 +9053,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="12.75" customHeight="1">
+    <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15">
         <v>43101</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>54</v>
@@ -9061,13 +9076,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="12.75" customHeight="1">
+    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15">
         <v>43101</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>56</v>
@@ -9084,13 +9099,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="12.75" customHeight="1">
+    <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15">
         <v>43101</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>58</v>
@@ -9107,13 +9122,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="12.75" customHeight="1">
+    <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>43101</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>60</v>
@@ -9130,13 +9145,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="12.75" customHeight="1">
+    <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>43101</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>61</v>
@@ -9153,13 +9168,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="12.75" customHeight="1">
+    <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>43101</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>64</v>
@@ -9176,13 +9191,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="12.75" customHeight="1">
+    <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>43101</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>66</v>
@@ -9199,13 +9214,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="12.75" customHeight="1">
+    <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>43101</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>68</v>
@@ -9222,13 +9237,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="12.75" customHeight="1">
+    <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>43101</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>70</v>
@@ -9245,46 +9260,48 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" customHeight="1">
+    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>43101</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D17" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="25" t="s">
         <v>72</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>73</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="24"/>
+      <c r="H17" s="25" t="s">
+        <v>207</v>
+      </c>
       <c r="J17" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1">
+    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>43101</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>75</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H18" s="25" t="s">
         <v>77</v>
@@ -9293,39 +9310,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A19" s="15">
-        <v>43101</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A19">
+  <autoFilter ref="A1:L18" xr:uid="{5CF36EC4-574A-F740-BEC7-9B222789F5DB}"/>
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A18" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B19">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B18" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9341,14 +9335,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -9366,9 +9360,9 @@
     <col min="29" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="17">
+    <row r="1" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
@@ -9387,7 +9381,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:28" ht="51.75" customHeight="1">
+    <row r="2" spans="1:28" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
@@ -9409,13 +9403,13 @@
         <v>34</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>25</v>
@@ -9437,7 +9431,7 @@
       <c r="AA2" s="12"/>
       <c r="AB2" s="12"/>
     </row>
-    <row r="3" spans="1:28" ht="12.75" customHeight="1">
+    <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
@@ -9448,13 +9442,13 @@
         <v>17</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>42</v>
@@ -9463,13 +9457,13 @@
         <v>39</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J3" s="20" t="s">
         <v>41</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>29</v>
@@ -9495,22 +9489,22 @@
       <c r="AA3" s="13"/>
       <c r="AB3" s="13"/>
     </row>
-    <row r="4" spans="1:28" ht="12.75" customHeight="1">
+    <row r="4" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15">
         <v>43101</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>49</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="5"/>
@@ -9527,22 +9521,22 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:28" ht="12.75" customHeight="1">
+    <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
         <v>43101</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="33"/>
@@ -9558,28 +9552,26 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:28" ht="12.75" customHeight="1">
+    <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15">
         <v>43101</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="30" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>94</v>
+        <v>49</v>
+      </c>
+      <c r="F6" s="145" t="s">
+        <v>215</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="33"/>
-      <c r="J6" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="J6" s="5"/>
       <c r="K6" s="13"/>
       <c r="L6" s="33" t="s">
         <v>30</v>
@@ -9591,22 +9583,22 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:28" ht="12.75" customHeight="1">
+    <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15">
         <v>43101</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="37" t="s">
-        <v>77</v>
+      <c r="C7" s="30" t="s">
+        <v>207</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>96</v>
+        <v>211</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="33"/>
@@ -9622,26 +9614,28 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:28" ht="12.75" customHeight="1">
+    <row r="8" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15">
         <v>43101</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="37" t="s">
-        <v>77</v>
+      <c r="C8" s="30" t="s">
+        <v>207</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="K8" s="13"/>
       <c r="L8" s="33" t="s">
         <v>30</v>
@@ -9653,22 +9647,22 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:28" ht="12.75" customHeight="1">
+    <row r="9" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15">
         <v>43101</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="37" t="s">
-        <v>77</v>
+      <c r="C9" s="30" t="s">
+        <v>207</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="33"/>
@@ -9684,22 +9678,22 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:28" ht="12.75" customHeight="1">
+    <row r="10" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15">
         <v>43101</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="37" t="s">
-        <v>77</v>
+      <c r="C10" s="30" t="s">
+        <v>207</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>102</v>
+        <v>214</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="33"/>
@@ -9715,22 +9709,22 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:28" ht="12.75" customHeight="1">
+    <row r="11" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>43101</v>
       </c>
       <c r="B11" s="13"/>
-      <c r="C11" s="34" t="s">
-        <v>77</v>
+      <c r="C11" s="30" t="s">
+        <v>207</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="33"/>
@@ -9747,8 +9741,8 @@
       <c r="R11" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A11">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A11" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9764,14 +9758,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -9781,9 +9775,9 @@
     <col min="28" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="17">
+    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
@@ -9801,7 +9795,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:27" s="19" customFormat="1" ht="12.75" customHeight="1">
+    <row r="2" spans="1:27" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">
@@ -9811,7 +9805,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
@@ -9836,7 +9830,7 @@
       <c r="Z2" s="18"/>
       <c r="AA2" s="18"/>
     </row>
-    <row r="3" spans="1:27" ht="12.75" customHeight="1">
+    <row r="3" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
@@ -9847,10 +9841,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -9875,19 +9869,19 @@
       <c r="Z3" s="13"/>
       <c r="AA3" s="13"/>
     </row>
-    <row r="4" spans="1:27" ht="12.75" customHeight="1">
+    <row r="4" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15">
         <v>43101</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="30" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="F4" s="33"/>
       <c r="H4" s="5"/>
@@ -9902,19 +9896,19 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:27" ht="12.75" customHeight="1">
+    <row r="5" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
         <v>43101</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="37" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F5" s="33"/>
       <c r="H5" s="5"/>
@@ -9929,20 +9923,12 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A6" s="15">
-        <v>43101</v>
-      </c>
+    <row r="6" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>114</v>
-      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="33"/>
       <c r="H6" s="5"/>
       <c r="I6" s="33"/>
@@ -9956,20 +9942,12 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A7" s="15">
-        <v>43101</v>
-      </c>
+    <row r="7" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>116</v>
-      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="33"/>
       <c r="H7" s="5"/>
       <c r="I7" s="33"/>
@@ -9983,20 +9961,12 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A8" s="15">
-        <v>43101</v>
-      </c>
+    <row r="8" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>118</v>
-      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="38"/>
       <c r="F8" s="33"/>
       <c r="H8" s="5"/>
       <c r="I8" s="33"/>
@@ -10010,20 +9980,12 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A9" s="15">
-        <v>43101</v>
-      </c>
+    <row r="9" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>120</v>
-      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="33"/>
       <c r="H9" s="5"/>
       <c r="I9" s="33"/>
@@ -10037,20 +9999,12 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A10" s="15">
-        <v>43101</v>
-      </c>
+    <row r="10" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>122</v>
-      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="38"/>
       <c r="F10" s="33"/>
       <c r="H10" s="5"/>
       <c r="I10" s="33"/>
@@ -10064,20 +10018,12 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A11" s="15">
-        <v>43101</v>
-      </c>
+    <row r="11" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>124</v>
-      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="33"/>
       <c r="H11" s="5"/>
       <c r="I11" s="33"/>
@@ -10091,20 +10037,12 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A12" s="15">
-        <v>43101</v>
-      </c>
+    <row r="12" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>126</v>
-      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="33"/>
       <c r="H12" s="5"/>
       <c r="I12" s="33"/>
@@ -10118,20 +10056,12 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A13" s="15">
-        <v>43101</v>
-      </c>
+    <row r="13" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>128</v>
-      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="33"/>
       <c r="H13" s="5"/>
       <c r="I13" s="33"/>
@@ -10145,20 +10075,12 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A14" s="15">
-        <v>43101</v>
-      </c>
+    <row r="14" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>130</v>
-      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="33"/>
       <c r="H14" s="5"/>
       <c r="I14" s="33"/>
@@ -10172,20 +10094,12 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A15" s="15">
-        <v>43101</v>
-      </c>
+    <row r="15" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>132</v>
-      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="33"/>
       <c r="H15" s="5"/>
       <c r="I15" s="33"/>
@@ -10199,20 +10113,12 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A16" s="15">
-        <v>43101</v>
-      </c>
+    <row r="16" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>134</v>
-      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="33"/>
       <c r="H16" s="5"/>
       <c r="I16" s="33"/>
@@ -10226,20 +10132,12 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A17" s="15">
-        <v>43101</v>
-      </c>
+    <row r="17" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>136</v>
-      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="33"/>
       <c r="H17" s="5"/>
       <c r="I17" s="33"/>
@@ -10253,20 +10151,12 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A18" s="15">
-        <v>43101</v>
-      </c>
+    <row r="18" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>138</v>
-      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="33"/>
       <c r="H18" s="5"/>
       <c r="I18" s="33"/>
@@ -10280,20 +10170,12 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A19" s="15">
-        <v>43101</v>
-      </c>
+    <row r="19" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>140</v>
-      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="33"/>
       <c r="H19" s="5"/>
       <c r="I19" s="33"/>
@@ -10307,20 +10189,12 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A20" s="15">
-        <v>43101</v>
-      </c>
+    <row r="20" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>142</v>
-      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="33"/>
       <c r="H20" s="5"/>
       <c r="I20" s="33"/>
@@ -10334,20 +10208,12 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A21" s="15">
-        <v>43101</v>
-      </c>
+    <row r="21" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>144</v>
-      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="33"/>
       <c r="H21" s="5"/>
       <c r="I21" s="33"/>
@@ -10361,20 +10227,12 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A22" s="15">
-        <v>43101</v>
-      </c>
+    <row r="22" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>146</v>
-      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="33"/>
       <c r="H22" s="5"/>
       <c r="I22" s="33"/>
@@ -10388,20 +10246,12 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A23" s="15">
-        <v>43101</v>
-      </c>
+    <row r="23" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>148</v>
-      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="33"/>
       <c r="H23" s="5"/>
       <c r="I23" s="33"/>
@@ -10415,20 +10265,12 @@
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A24" s="15">
-        <v>43101</v>
-      </c>
+    <row r="24" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>150</v>
-      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="33"/>
       <c r="H24" s="5"/>
       <c r="I24" s="33"/>
@@ -10442,20 +10284,12 @@
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A25" s="15">
-        <v>43101</v>
-      </c>
+    <row r="25" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>152</v>
-      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
       <c r="F25" s="33"/>
       <c r="H25" s="5"/>
       <c r="I25" s="33"/>
@@ -10471,7 +10305,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A25">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A25" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10487,14 +10321,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -10507,9 +10341,9 @@
     <col min="28" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="17">
+    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
@@ -10527,12 +10361,12 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:27" ht="61" customHeight="1">
+    <row r="2" spans="1:27" ht="61" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="39" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>33</v>
@@ -10560,7 +10394,7 @@
       <c r="Z2" s="12"/>
       <c r="AA2" s="12"/>
     </row>
-    <row r="3" spans="1:27" ht="12.75" customHeight="1">
+    <row r="3" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="40" t="s">
         <v>15</v>
       </c>
@@ -10580,66 +10414,66 @@
         <v>19</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="12.75" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15">
         <v>43101</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="G4" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="12.75" customHeight="1">
+    <row r="5" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
         <v>43101</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="G5" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A6" s="15">
         <v>43101</v>
       </c>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="G6" s="5">
         <v>3</v>
@@ -10647,15 +10481,15 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A6">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A6" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B5">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B5" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G6">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G6" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10671,14 +10505,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.1640625" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -10702,9 +10536,9 @@
     <col min="30" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17">
+    <row r="1" spans="1:29" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
@@ -10729,7 +10563,7 @@
       <c r="R1" s="44"/>
       <c r="S1" s="44"/>
     </row>
-    <row r="2" spans="1:29" ht="84">
+    <row r="2" spans="1:29" ht="98" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
@@ -10742,31 +10576,31 @@
         <v>22</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="M2" s="18" t="s">
         <v>24</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>24</v>
@@ -10775,7 +10609,7 @@
         <v>25</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="R2" s="45"/>
       <c r="S2" s="44"/>
@@ -10790,7 +10624,7 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
     </row>
-    <row r="3" spans="1:29" ht="39">
+    <row r="3" spans="1:29" ht="45" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
@@ -10810,43 +10644,43 @@
         <v>19</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="P3" s="13" t="s">
         <v>29</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="R3" s="45" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="S3" s="45" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
@@ -10859,28 +10693,28 @@
       <c r="AB3" s="13"/>
       <c r="AC3" s="13"/>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A4" s="15">
         <v>43101</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="G4" s="48">
         <v>1</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -10888,34 +10722,34 @@
       <c r="M4" s="5"/>
       <c r="N4" s="50"/>
       <c r="P4" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
         <v>43101</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="G5" s="48">
         <v>2</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -10923,40 +10757,40 @@
       <c r="M5" s="5"/>
       <c r="N5" s="52"/>
       <c r="P5" s="28" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A6" s="15">
         <v>43101</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="G6" s="48">
         <v>3</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -10964,40 +10798,40 @@
       <c r="M6" s="5"/>
       <c r="N6" s="50"/>
       <c r="P6" s="28" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A7" s="15">
         <v>43101</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="G7" s="48">
         <v>4</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -11005,62 +10839,98 @@
       <c r="M7" s="5"/>
       <c r="N7" s="50"/>
       <c r="P7" s="5" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A8" s="15">
         <v>43466</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="G8" s="48">
         <v>5</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="P8" s="28" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>184</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A9" s="15">
+        <v>43101</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="143" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="48">
+        <v>6</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A8">
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A9" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B8">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B9" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G8">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G9" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -11076,14 +10946,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -11103,9 +10973,9 @@
     <col min="29" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="17">
+    <row r="1" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
@@ -11125,44 +10995,44 @@
       <c r="K1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:28" s="58" customFormat="1" ht="54.75" customHeight="1">
+    <row r="2" spans="1:28" s="58" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="I2" s="57" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="K2" s="57" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
@@ -11179,7 +11049,7 @@
       <c r="AA2" s="29"/>
       <c r="AB2" s="29"/>
     </row>
-    <row r="3" spans="1:28" ht="21.75" customHeight="1">
+    <row r="3" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="59" t="s">
         <v>15</v>
       </c>
@@ -11190,49 +11060,49 @@
         <v>37</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="I3" s="63" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="L3" s="62" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M3" s="64" t="s">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="N3" s="65" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" s="15">
         <v>43101</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="E4" s="54" t="s">
         <v>47</v>
@@ -11242,13 +11112,13 @@
       </c>
       <c r="G4"/>
       <c r="H4" s="66" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="I4" s="48">
         <v>1</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K4" s="48">
         <v>1</v>
@@ -11257,16 +11127,16 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:28" ht="12.75" customHeight="1">
+    <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
         <v>43101</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="E5" s="54" t="s">
         <v>45</v>
@@ -11276,13 +11146,13 @@
       </c>
       <c r="G5"/>
       <c r="H5" s="66" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="I5" s="48">
         <v>1</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K5" s="48">
         <v>2</v>
@@ -11292,16 +11162,16 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:28" ht="12.75" customHeight="1">
+    <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15">
         <v>43101</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="E6" s="54" t="s">
         <v>50</v>
@@ -11311,13 +11181,13 @@
       </c>
       <c r="G6"/>
       <c r="H6" s="66" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="I6" s="48">
         <v>1</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K6" s="48">
         <v>3</v>
@@ -11327,16 +11197,16 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:28" ht="12.75" customHeight="1">
+    <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15">
         <v>43101</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>52</v>
@@ -11346,13 +11216,13 @@
       </c>
       <c r="G7"/>
       <c r="H7" s="28" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="I7" s="48">
         <v>1</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K7" s="48">
         <v>4</v>
@@ -11362,16 +11232,16 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:28" ht="12.75" customHeight="1">
+    <row r="8" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15">
         <v>43101</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>54</v>
@@ -11381,13 +11251,13 @@
       </c>
       <c r="G8"/>
       <c r="H8" s="66" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="I8" s="48">
         <v>1</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K8" s="48">
         <v>5</v>
@@ -11397,16 +11267,16 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:28" ht="12.75" customHeight="1">
+    <row r="9" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15">
         <v>43101</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>56</v>
@@ -11416,13 +11286,13 @@
       </c>
       <c r="G9"/>
       <c r="H9" s="66" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="I9" s="48">
         <v>1</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K9" s="48">
         <v>6</v>
@@ -11432,16 +11302,16 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:28" ht="12.75" customHeight="1">
+    <row r="10" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15">
         <v>43101</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>58</v>
@@ -11451,13 +11321,13 @@
       </c>
       <c r="G10"/>
       <c r="H10" s="66" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="I10" s="48">
         <v>1</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K10" s="48">
         <v>7</v>
@@ -11467,16 +11337,16 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:28" ht="12.75" customHeight="1">
+    <row r="11" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>43101</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>60</v>
@@ -11486,13 +11356,13 @@
       </c>
       <c r="G11"/>
       <c r="H11" s="66" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="I11" s="48">
         <v>1</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K11" s="48">
         <v>8</v>
@@ -11502,16 +11372,16 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:28" ht="12.75" customHeight="1">
+    <row r="12" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>43101</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>61</v>
@@ -11521,13 +11391,13 @@
       </c>
       <c r="G12"/>
       <c r="H12" s="66" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="I12" s="48">
         <v>1</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K12" s="48">
         <v>9</v>
@@ -11537,16 +11407,16 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:28" ht="12.75" customHeight="1">
+    <row r="13" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>43101</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>64</v>
@@ -11556,13 +11426,13 @@
       </c>
       <c r="G13"/>
       <c r="H13" s="66" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="I13" s="48">
         <v>1</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K13" s="48">
         <v>10</v>
@@ -11572,16 +11442,16 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:28" ht="12.75" customHeight="1">
+    <row r="14" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>43101</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>66</v>
@@ -11591,13 +11461,13 @@
       </c>
       <c r="G14"/>
       <c r="H14" s="66" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="I14" s="48">
         <v>1</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K14" s="48">
         <v>11</v>
@@ -11607,16 +11477,16 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="1:28" ht="12.75" customHeight="1">
+    <row r="15" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>43101</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>68</v>
@@ -11626,13 +11496,13 @@
       </c>
       <c r="G15"/>
       <c r="H15" s="66" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="I15" s="48">
         <v>1</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K15" s="48">
         <v>12</v>
@@ -11642,32 +11512,32 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:28" ht="12.75" customHeight="1">
+    <row r="16" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>43101</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="E16" s="67" t="s">
-        <v>72</v>
+        <v>208</v>
       </c>
       <c r="F16" s="48">
         <v>13</v>
       </c>
       <c r="G16"/>
       <c r="H16" s="66" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="I16" s="48">
         <v>1</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K16" s="48">
         <v>13</v>
@@ -11677,16 +11547,16 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:15" ht="12.75" customHeight="1">
+    <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>43101</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="E17" s="51" t="s">
         <v>47</v>
@@ -11696,13 +11566,13 @@
       </c>
       <c r="G17"/>
       <c r="H17" s="28" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="I17" s="48">
         <v>1</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K17" s="48">
         <v>1</v>
@@ -11712,16 +11582,16 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:15" ht="12.75" customHeight="1">
+    <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>43101</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="E18" s="51" t="s">
         <v>45</v>
@@ -11731,13 +11601,13 @@
       </c>
       <c r="G18"/>
       <c r="H18" s="28" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="I18" s="48">
         <v>1</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K18" s="48">
         <v>2</v>
@@ -11747,16 +11617,16 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="1:15" ht="12.75" customHeight="1">
+    <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15">
         <v>43101</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="E19" s="68" t="s">
         <v>70</v>
@@ -11766,13 +11636,13 @@
       </c>
       <c r="G19"/>
       <c r="H19" s="66" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="I19" s="48">
         <v>1</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K19" s="48">
         <v>3</v>
@@ -11782,16 +11652,16 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:15" ht="12.75" customHeight="1">
+    <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15">
         <v>43101</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="E20" s="68" t="s">
         <v>50</v>
@@ -11801,13 +11671,13 @@
       </c>
       <c r="G20"/>
       <c r="H20" s="66" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="I20" s="48">
         <v>1</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K20" s="48">
         <v>4</v>
@@ -11817,32 +11687,32 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="1:15" ht="12.75" customHeight="1">
+    <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15">
         <v>43101</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="F21" s="48">
         <v>5</v>
       </c>
       <c r="G21"/>
       <c r="H21" s="66" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="I21" s="48">
         <v>1</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K21" s="48">
         <v>5</v>
@@ -11852,16 +11722,16 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="1:15" ht="12.75" customHeight="1">
+    <row r="22" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>43101</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="E22" s="53" t="s">
         <v>47</v>
@@ -11871,13 +11741,13 @@
       </c>
       <c r="G22"/>
       <c r="H22" s="28" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="I22" s="48">
         <v>1</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K22" s="48">
         <v>1</v>
@@ -11887,16 +11757,16 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:15" ht="12.75" customHeight="1">
+    <row r="23" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>43101</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="E23" s="53" t="s">
         <v>45</v>
@@ -11906,13 +11776,13 @@
       </c>
       <c r="G23"/>
       <c r="H23" s="28" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="I23" s="48">
         <v>1</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K23" s="48">
         <v>2</v>
@@ -11922,32 +11792,32 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="1:15" ht="12.75" customHeight="1">
+    <row r="24" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>43101</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="E24" s="69" t="s">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="F24" s="48">
         <v>3</v>
       </c>
       <c r="G24"/>
       <c r="H24" s="28" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="I24" s="48">
         <v>1</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K24" s="48">
         <v>3</v>
@@ -11957,16 +11827,16 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>43101</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="E25" s="54" t="s">
         <v>47</v>
@@ -11976,13 +11846,13 @@
       </c>
       <c r="G25"/>
       <c r="H25" s="28" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="I25" s="48">
         <v>1</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K25" s="48">
         <v>1</v>
@@ -11991,16 +11861,16 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="1:15" ht="12.75" customHeight="1">
+    <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>43101</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D26" s="54" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="E26" s="54" t="s">
         <v>45</v>
@@ -12010,13 +11880,13 @@
       </c>
       <c r="G26"/>
       <c r="H26" s="28" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="I26" s="48">
         <v>1</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K26" s="48">
         <v>2</v>
@@ -12026,16 +11896,16 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="1:15" ht="12.75" customHeight="1">
+    <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>43101</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D27" s="54" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="E27" s="54" t="s">
         <v>70</v>
@@ -12045,13 +11915,13 @@
       </c>
       <c r="G27"/>
       <c r="H27" s="66" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="I27" s="48">
         <v>1</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K27" s="48">
         <v>3</v>
@@ -12061,16 +11931,16 @@
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="1:15" ht="12.75" customHeight="1">
+    <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>43101</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="E28" s="54" t="s">
         <v>50</v>
@@ -12080,13 +11950,13 @@
       </c>
       <c r="G28"/>
       <c r="H28" s="66" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="I28" s="48">
         <v>1</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K28" s="48">
         <v>4</v>
@@ -12096,32 +11966,32 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="1:15" ht="12.75" customHeight="1">
+    <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>43101</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="E29" s="67" t="s">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="F29" s="48">
         <v>5</v>
       </c>
       <c r="G29"/>
       <c r="H29" s="66" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="I29" s="48">
         <v>1</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K29" s="48">
         <v>5</v>
@@ -12131,16 +12001,16 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>43466</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="E30" s="70" t="s">
         <v>47</v>
@@ -12149,28 +12019,28 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="I30" s="48">
         <v>1</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K30" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>43466</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="E31" s="70" t="s">
         <v>45</v>
@@ -12179,28 +12049,28 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="I31" s="48">
         <v>1</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K31" s="48">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>43466</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="E32" s="70" t="s">
         <v>50</v>
@@ -12209,73 +12079,73 @@
         <v>3</v>
       </c>
       <c r="H32" s="66" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="I32" s="48">
         <v>1</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K32" s="48">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
         <v>43466</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="E33" s="71" t="s">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="F33" s="48">
         <v>4</v>
       </c>
       <c r="H33" s="66" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="I33" s="48">
         <v>1</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K33" s="48">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
         <v>43466</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="E34" s="71" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F34" s="48">
         <v>5</v>
       </c>
       <c r="H34" s="66" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="I34" s="48">
         <v>1</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="K34" s="48">
         <v>5</v>
@@ -12283,7 +12153,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A34">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A34" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/docker/ccd-definition-import/data/CCD_Definition_BULK_SCAN.template.xlsx
+++ b/docker/ccd-definition-import/data/CCD_Definition_BULK_SCAN.template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alivenic/projects/bulk-scan-shared-infrastructure/docker/ccd-definition-import/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0E4B8A-D654-5D4D-AC1B-B8110672CCD8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746604C6-63FE-4F4A-9BEF-23469527E55F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Change History" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="244">
   <si>
     <t>Change History</t>
   </si>
@@ -785,6 +785,24 @@
   </si>
   <si>
     <t>Document Subtype</t>
+  </si>
+  <si>
+    <t>Event History</t>
+  </si>
+  <si>
+    <t>CaseHistoryViewer</t>
+  </si>
+  <si>
+    <t>caseHistory</t>
+  </si>
+  <si>
+    <t>Added custom event history tab</t>
+  </si>
+  <si>
+    <t>Case History</t>
+  </si>
+  <si>
+    <t>eventHistory</t>
   </si>
 </sst>
 </file>
@@ -1892,11 +1910,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2134,6 +2150,23 @@
         <v>43481</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="115">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6">
+        <v>43544</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2154,10 +2187,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AA1048553"/>
+  <dimension ref="A1:AA1048554"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H8"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2277,16 +2310,16 @@
         <v>118</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>119</v>
+        <v>243</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="G4" s="59">
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="I4" s="59">
         <v>1</v>
@@ -2310,13 +2343,13 @@
         <v>109</v>
       </c>
       <c r="G5" s="59">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="59">
         <v>1</v>
-      </c>
-      <c r="H5" s="132" t="s">
-        <v>210</v>
-      </c>
-      <c r="I5" s="59">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2337,13 +2370,13 @@
         <v>109</v>
       </c>
       <c r="G6" s="59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="132" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I6" s="59">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2364,13 +2397,13 @@
         <v>109</v>
       </c>
       <c r="G7" s="59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="132" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I7" s="59">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2391,13 +2424,13 @@
         <v>109</v>
       </c>
       <c r="G8" s="59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="132" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="I8" s="59">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2412,30 +2445,57 @@
         <v>118</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G9" s="59">
         <v>2</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="132" t="s">
+        <v>177</v>
+      </c>
+      <c r="I9" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="15">
+        <v>43101</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="59">
+        <v>3</v>
+      </c>
+      <c r="H10" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="I9" s="59">
+      <c r="I10" s="59">
         <v>1</v>
       </c>
     </row>
-    <row r="1048552" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1048553" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1048554" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A9" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A10" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B9" xr:uid="{00000000-0002-0000-0900-000001000000}">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B10" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2710,8 +2770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11919,10 +11979,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -12098,9 +12158,26 @@
         <v>142</v>
       </c>
     </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A9" s="79">
+        <v>43101</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="132" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="80" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A8" xr:uid="{00000000-0002-0000-1000-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A9" xr:uid="{00000000-0002-0000-1000-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -13458,10 +13535,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A2" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13712,14 +13789,37 @@
         <v>30</v>
       </c>
     </row>
+    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="15">
+        <v>43101</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="132" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="F9" s="130"/>
+      <c r="G9" s="132" t="s">
+        <v>239</v>
+      </c>
+      <c r="H9" s="132"/>
+      <c r="J9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L3" xr:uid="{5CF36EC4-574A-F740-BEC7-9B222789F5DB}"/>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A8" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A9" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B8" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B9" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -13738,7 +13838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>

--- a/docker/ccd-definition-import/data/CCD_Definition_BULK_SCAN.template.xlsx
+++ b/docker/ccd-definition-import/data/CCD_Definition_BULK_SCAN.template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alivenic/projects/bulk-scan-shared-infrastructure/docker/ccd-definition-import/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leszekg/MOJ/Reform/bulk-scan-shared-infrastructure/docker/ccd-definition-import/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746604C6-63FE-4F4A-9BEF-23469527E55F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7736FA1D-8B69-8C4C-BC78-C6A35705F214}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="25560" windowHeight="14640" tabRatio="500" firstSheet="12" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Change History" sheetId="1" r:id="rId1"/>
@@ -32,11 +32,12 @@
     <sheet name="AuthorisationCaseField" sheetId="17" r:id="rId17"/>
     <sheet name="AuthorisationCaseEvent" sheetId="18" r:id="rId18"/>
     <sheet name="AuthorisationCaseState" sheetId="19" r:id="rId19"/>
+    <sheet name="SearchAlias" sheetId="20" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">CaseField!$A$1:$L$7</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="252">
   <si>
     <t>Change History</t>
   </si>
@@ -803,6 +804,30 @@
   </si>
   <si>
     <t>eventHistory</t>
+  </si>
+  <si>
+    <t>SearchAlias</t>
+  </si>
+  <si>
+    <t>Unique alias id for a case field of a case type</t>
+  </si>
+  <si>
+    <t>This is just the CaseField ID for top level fields, or object notation pointing to a complex type field e.g. applicantAddress.AddressLine1</t>
+  </si>
+  <si>
+    <t>SearchAliasID</t>
+  </si>
+  <si>
+    <t>legacyId</t>
+  </si>
+  <si>
+    <t>previousServiceCaseReference</t>
+  </si>
+  <si>
+    <t>Legacy ID</t>
+  </si>
+  <si>
+    <t>Created SearchAlias tab and added legacyId case field</t>
   </si>
 </sst>
 </file>
@@ -813,7 +838,7 @@
     <numFmt numFmtId="164" formatCode="d\ mmm\ yyyy"/>
     <numFmt numFmtId="165" formatCode="d/m/yy"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1036,6 +1061,30 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1051,7 +1100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1255,6 +1304,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1267,7 +1340,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1520,6 +1593,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="33" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
@@ -1910,9 +2001,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2168,6 +2261,23 @@
       </c>
       <c r="E16" s="2" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="115">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6">
+        <v>43598</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -11979,10 +12089,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -12175,9 +12285,26 @@
         <v>142</v>
       </c>
     </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A10" s="79">
+        <v>43101</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="132" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="80" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A9" xr:uid="{00000000-0002-0000-1000-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A10" xr:uid="{00000000-0002-0000-1000-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -13362,6 +13489,107 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FE2902-4889-4846-A591-62C4C43C1C14}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="134" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="137" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="138"/>
+    </row>
+    <row r="2" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A2" s="139"/>
+      <c r="B2" s="140" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="140" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="140"/>
+      <c r="E2" s="138"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="142" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="142" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="142"/>
+      <c r="E3" s="138"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="138" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="143" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="144" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="145"/>
+      <c r="E4" s="138"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="138"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="138"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="138"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="138"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="147"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="138"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="138"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA4"/>
@@ -13535,10 +13763,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13812,14 +14040,37 @@
         <v>30</v>
       </c>
     </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A10" s="15">
+        <v>43101</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="132" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10" s="132" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="130"/>
+      <c r="G10" s="132" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="132"/>
+      <c r="J10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L3" xr:uid="{5CF36EC4-574A-F740-BEC7-9B222789F5DB}"/>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A9" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A10" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B9" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B10" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/docker/ccd-definition-import/data/CCD_Definition_BULK_SCAN.template.xlsx
+++ b/docker/ccd-definition-import/data/CCD_Definition_BULK_SCAN.template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alivenic/projects/bulk-scan-shared-infrastructure/docker/ccd-definition-import/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6862B4BE-B4FD-0E4C-8B46-6FEA49854FF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED8D925-8E4F-D340-8BB9-F824E074C6EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="25560" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="28760" windowHeight="17240" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Change History" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="CaseType" sheetId="3" r:id="rId3"/>
     <sheet name="CaseField" sheetId="4" r:id="rId4"/>
     <sheet name="ComplexTypes" sheetId="5" r:id="rId5"/>
-    <sheet name="AuthorisationComplexType" sheetId="21" r:id="rId6"/>
+    <sheet name="AuthorisationComplexType" sheetId="22" r:id="rId6"/>
     <sheet name="FixedLists" sheetId="6" r:id="rId7"/>
     <sheet name="State" sheetId="7" r:id="rId8"/>
     <sheet name="CaseEvent" sheetId="8" r:id="rId9"/>
@@ -36,7 +36,7 @@
     <sheet name="SearchAlias" sheetId="20" r:id="rId21"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">CaseField!$A$1:$L$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">CaseField!$A$1:$L$10</definedName>
   </definedNames>
   <calcPr calcId="140001"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="271">
   <si>
     <t>Change History</t>
   </si>
@@ -843,29 +843,53 @@
     <t>Delivery Date</t>
   </si>
   <si>
-    <t>CRU</t>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>contactNumber</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>PhoneUK</t>
+  </si>
+  <si>
+    <t>dateOfBirth</t>
+  </si>
+  <si>
+    <t>Contact Details</t>
+  </si>
+  <si>
+    <t>contactDetails</t>
+  </si>
+  <si>
+    <t>Added new fields to the case to test phase 2 changes</t>
+  </si>
+  <si>
+    <t>AuthorisationComplexType</t>
+  </si>
+  <si>
+    <t>Must match ID on 'CaseType' tab
+MaxLength: 70</t>
+  </si>
+  <si>
+    <t>The Field ID should match an ID in the CaseField Tab
+MaxLength: 70</t>
+  </si>
+  <si>
+    <t>Must match ID role.  If a role doesn’t have a Row below that mean no access to.
+MaxLength: 100.</t>
   </si>
   <si>
     <t>C - Create, R - Read, U - Update, D - Delete
 MustBe1OrManyOf: &lt;C,R,U,D&gt; MaxLength: 5</t>
-  </si>
-  <si>
-    <t>Must match ID role.  If a role doesn’t have a Row below that mean no access to.
-MaxLength: 100.</t>
-  </si>
-  <si>
-    <t>The Field ID should match an ID in the CaseField Tab
-MaxLength: 70</t>
-  </si>
-  <si>
-    <t>Must match ID on 'CaseType' tab
-MaxLength: 70</t>
-  </si>
-  <si>
-    <t>AuthorisationComplexType</t>
-  </si>
-  <si>
-    <t>Added AuthorisationComplexType tab</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1402,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
@@ -1388,10 +1412,11 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1662,25 +1687,24 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="9" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1690,8 +1714,9 @@
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="9" xr:uid="{1E974C16-ADD0-5843-899B-4B328845F1AC}"/>
-    <cellStyle name="Normal 2 3" xfId="10" xr:uid="{50BBC938-D2C4-2948-84ED-E190A296233A}"/>
+    <cellStyle name="Normal 2" xfId="11" xr:uid="{68453A2E-9B27-5445-AD1C-3F45F88A9FBF}"/>
+    <cellStyle name="Normal 2 3" xfId="9" xr:uid="{7691E89B-92EC-CA46-80C2-9C309E07083D}"/>
+    <cellStyle name="Normal 3" xfId="10" xr:uid="{8B489D75-9D3B-8C49-A9B3-69099076E245}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2073,7 +2098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -2378,7 +2403,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="6">
-        <v>43599</v>
+        <v>43630</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>185</v>
@@ -2389,13 +2414,13 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="6">
-        <v>43634</v>
+        <v>43636</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>185</v>
@@ -2418,10 +2443,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2618,7 +2643,7 @@
       </c>
       <c r="G5"/>
       <c r="H5" s="56" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="I5" s="43">
         <v>1</v>
@@ -2653,7 +2678,7 @@
       </c>
       <c r="G6"/>
       <c r="H6" s="56" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="I6" s="43">
         <v>1</v>
@@ -2681,14 +2706,14 @@
         <v>208</v>
       </c>
       <c r="E7" s="132" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="F7" s="43">
         <v>4</v>
       </c>
       <c r="G7"/>
       <c r="H7" s="56" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="I7" s="43">
         <v>1</v>
@@ -2716,23 +2741,23 @@
         <v>208</v>
       </c>
       <c r="E8" s="132" t="s">
-        <v>158</v>
+        <v>259</v>
       </c>
       <c r="F8" s="43">
         <v>5</v>
       </c>
       <c r="G8"/>
       <c r="H8" s="56" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="I8" s="43">
+        <v>2</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="K8" s="43">
         <v>1</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" s="43">
-        <v>5</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -2751,30 +2776,30 @@
         <v>208</v>
       </c>
       <c r="E9" s="132" t="s">
-        <v>177</v>
+        <v>258</v>
       </c>
       <c r="F9" s="43">
         <v>6</v>
       </c>
       <c r="G9"/>
       <c r="H9" s="56" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="I9" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="K9" s="43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15">
         <v>43101</v>
       </c>
@@ -2783,91 +2808,229 @@
         <v>149</v>
       </c>
       <c r="D10" s="130" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="E10" s="132" t="s">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="F10" s="43">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G10"/>
       <c r="H10" s="56" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="I10" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="K10" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
-        <v>43466</v>
+        <v>43101</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" t="s">
         <v>149</v>
       </c>
       <c r="D11" s="130" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="130" t="s">
-        <v>177</v>
+        <v>208</v>
+      </c>
+      <c r="E11" s="132" t="s">
+        <v>158</v>
       </c>
       <c r="F11" s="43">
+        <v>8</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="43">
         <v>2</v>
       </c>
-      <c r="H11" s="56" t="s">
-        <v>182</v>
-      </c>
-      <c r="I11" s="43">
-        <v>1</v>
-      </c>
       <c r="J11" s="5" t="s">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="K11" s="43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
-        <v>43466</v>
+        <v>43101</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="131" t="s">
+      <c r="D12" s="130" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="132" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="43">
+        <v>9</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="43">
+        <v>2</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="K12" s="43">
+        <v>5</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A13" s="15">
+        <v>43101</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="130" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="132" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="43">
+        <v>1</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="43">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A14" s="15">
+        <v>43466</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="130" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="130" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="43">
+        <v>2</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="I14" s="43">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A15" s="15">
+        <v>43466</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="131" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="130" t="s">
+      <c r="E15" s="130" t="s">
         <v>177</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F15" s="43">
         <v>1</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H15" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I15" s="43">
         <v>1</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="K12" s="43">
+      <c r="J15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="43">
         <v>1</v>
       </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E19" s="132"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E20" s="132"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E21" s="132"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E22" s="132"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E23" s="132"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E24" s="132"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E25" s="132"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E26" s="132"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E27" s="132"/>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E28" s="132"/>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E29" s="132"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A10:A12 A4:A9" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A15" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2884,10 +3047,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AA1048554"/>
+  <dimension ref="A1:AA1048557"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3124,10 +3287,10 @@
         <v>2</v>
       </c>
       <c r="H8" s="132" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="I8" s="59">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3142,19 +3305,19 @@
         <v>118</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>119</v>
+        <v>264</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="G9" s="59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" s="132" t="s">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c r="I9" s="59">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3169,30 +3332,111 @@
         <v>118</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>121</v>
+        <v>264</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="G10" s="59">
         <v>3</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="132" t="s">
+        <v>258</v>
+      </c>
+      <c r="I10" s="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15">
+        <v>43101</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="G11" s="59">
+        <v>3</v>
+      </c>
+      <c r="H11" s="132" t="s">
+        <v>214</v>
+      </c>
+      <c r="I11" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15">
+        <v>43101</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="59">
+        <v>4</v>
+      </c>
+      <c r="H12" s="132" t="s">
+        <v>177</v>
+      </c>
+      <c r="I12" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="15">
+        <v>43101</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="59">
+        <v>4</v>
+      </c>
+      <c r="H13" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="I10" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048553" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1048554" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="I13" s="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1048556" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1048557" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A10" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A13" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B10" xr:uid="{00000000-0002-0000-0900-000001000000}">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B13" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12580,7 +12824,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -12676,10 +12920,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -12812,7 +13056,7 @@
         <v>149</v>
       </c>
       <c r="D6" s="132" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="E6" s="77" t="s">
         <v>152</v>
@@ -12822,19 +13066,20 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A7" s="79">
+      <c r="A7" s="75">
         <v>43101</v>
       </c>
+      <c r="B7" s="76"/>
       <c r="C7" s="5" t="s">
         <v>149</v>
       </c>
       <c r="D7" s="132" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="E7" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="F7" s="78" t="s">
         <v>142</v>
       </c>
     </row>
@@ -12846,7 +13091,7 @@
         <v>149</v>
       </c>
       <c r="D8" s="132" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="E8" s="77" t="s">
         <v>152</v>
@@ -12863,7 +13108,7 @@
         <v>149</v>
       </c>
       <c r="D9" s="132" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="E9" s="77" t="s">
         <v>152</v>
@@ -12880,7 +13125,7 @@
         <v>149</v>
       </c>
       <c r="D10" s="132" t="s">
-        <v>248</v>
+        <v>158</v>
       </c>
       <c r="E10" s="77" t="s">
         <v>152</v>
@@ -12889,9 +13134,93 @@
         <v>142</v>
       </c>
     </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A11" s="79">
+        <v>43101</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="132" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A12" s="79">
+        <v>43101</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="132" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A13" s="79">
+        <v>43101</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="132" t="s">
+        <v>248</v>
+      </c>
+      <c r="E13" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="80" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="D16" s="132"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D17" s="132"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D18" s="132"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D19" s="132"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D20" s="132"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D21" s="132"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D22" s="132"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D23" s="132"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D24" s="132"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D25" s="132"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D26" s="132"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A10" xr:uid="{00000000-0002-0000-1000-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A13" xr:uid="{00000000-0002-0000-1000-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -13078,7 +13407,7 @@
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14081,7 +14410,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14182,7 +14511,7 @@
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14350,7 +14679,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -14542,14 +14871,14 @@
         <v>149</v>
       </c>
       <c r="D6" s="132" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="E6" s="132" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="F6" s="130"/>
       <c r="G6" s="132" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="H6" s="132"/>
       <c r="J6" s="5" t="s">
@@ -14565,18 +14894,16 @@
         <v>149</v>
       </c>
       <c r="D7" s="132" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="E7" s="132" t="s">
-        <v>47</v>
+        <v>257</v>
       </c>
       <c r="F7" s="130"/>
       <c r="G7" s="132" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="132" t="s">
-        <v>157</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="H7" s="132"/>
       <c r="J7" s="5" t="s">
         <v>30</v>
       </c>
@@ -14590,14 +14917,14 @@
         <v>149</v>
       </c>
       <c r="D8" s="132" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="E8" s="132" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="F8" s="130"/>
       <c r="G8" s="132" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="H8" s="132"/>
       <c r="J8" s="5" t="s">
@@ -14613,21 +14940,21 @@
         <v>149</v>
       </c>
       <c r="D9" s="132" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="E9" s="132" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="F9" s="130"/>
       <c r="G9" s="132" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="H9" s="132"/>
       <c r="J9" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15">
         <v>43101</v>
       </c>
@@ -14636,28 +14963,99 @@
         <v>149</v>
       </c>
       <c r="D10" s="132" t="s">
-        <v>248</v>
+        <v>158</v>
       </c>
       <c r="E10" s="132" t="s">
-        <v>250</v>
+        <v>47</v>
       </c>
       <c r="F10" s="130"/>
       <c r="G10" s="132" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="132" t="s">
+        <v>157</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15">
+        <v>43101</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="132" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="132" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="130"/>
+      <c r="G11" s="132" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="132"/>
+      <c r="J11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15">
+        <v>43101</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="132" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="F12" s="130"/>
+      <c r="G12" s="132" t="s">
+        <v>239</v>
+      </c>
+      <c r="H12" s="132"/>
+      <c r="J12" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A13" s="15">
+        <v>43101</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="132" t="s">
+        <v>248</v>
+      </c>
+      <c r="E13" s="132" t="s">
+        <v>250</v>
+      </c>
+      <c r="F13" s="130"/>
+      <c r="G13" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="132"/>
-      <c r="J10" s="5" t="s">
+      <c r="H13" s="132"/>
+      <c r="J13" s="5" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L3" xr:uid="{5CF36EC4-574A-F740-BEC7-9B222789F5DB}"/>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A10" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A13" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B10" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B13" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -14677,7 +15075,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G8" sqref="A1:R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -15256,397 +15654,397 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB819C9-5507-5442-ABBF-DB2BA25FD59C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4E5300-4FA0-3842-8A40-CF2A51B4EA3C}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="144" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" style="148" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="148" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="148" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="148" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.6640625" style="148" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="148" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="148" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="148"/>
+    <col min="1" max="1" width="33.1640625" style="157" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="157" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="157" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="157" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.6640625" style="157" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="157" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="157" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="157"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="160" t="s">
-        <v>261</v>
-      </c>
-      <c r="B1" s="159" t="s">
+      <c r="A1" s="156" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="158" t="s">
+      <c r="C1" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="157" t="s">
+      <c r="D1" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
     </row>
     <row r="2" spans="1:7" ht="70" x14ac:dyDescent="0.15">
-      <c r="A2" s="156"/>
-      <c r="B2" s="156"/>
-      <c r="C2" s="155" t="s">
-        <v>260</v>
-      </c>
-      <c r="D2" s="155" t="s">
-        <v>259</v>
-      </c>
-      <c r="E2" s="155" t="s">
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="152" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="152" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="F2" s="155" t="s">
-        <v>258</v>
-      </c>
-      <c r="G2" s="155" t="s">
-        <v>257</v>
+      <c r="F2" s="152" t="s">
+        <v>269</v>
+      </c>
+      <c r="G2" s="152" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="153" t="s">
+      <c r="D3" s="150" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="153" t="s">
+      <c r="E3" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="152" t="s">
+      <c r="F3" s="159" t="s">
         <v>141</v>
       </c>
-      <c r="G3" s="152" t="s">
+      <c r="G3" s="159" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="150">
+      <c r="A4" s="15">
         <v>43101</v>
       </c>
-      <c r="B4" s="149"/>
+      <c r="B4" s="148"/>
       <c r="C4" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="151" t="s">
+      <c r="D4" s="149" t="s">
         <v>158</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G4" s="149" t="s">
-        <v>256</v>
+      <c r="G4" s="148" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="150">
+      <c r="A5" s="15">
         <v>43101</v>
       </c>
-      <c r="B5" s="149"/>
+      <c r="B5" s="148"/>
       <c r="C5" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="151" t="s">
+      <c r="D5" s="149" t="s">
         <v>158</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="87" t="s">
         <v>236</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G5" s="149" t="s">
-        <v>256</v>
+      <c r="G5" s="148" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="150">
+      <c r="A6" s="15">
         <v>43101</v>
       </c>
-      <c r="B6" s="149"/>
+      <c r="B6" s="148"/>
       <c r="C6" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="151" t="s">
+      <c r="D6" s="149" t="s">
         <v>158</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="87" t="s">
         <v>164</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G6" s="149" t="s">
-        <v>256</v>
+      <c r="G6" s="148" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="150">
+      <c r="A7" s="15">
         <v>43101</v>
       </c>
-      <c r="B7" s="149"/>
+      <c r="B7" s="148"/>
       <c r="C7" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="151" t="s">
+      <c r="D7" s="149" t="s">
         <v>158</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G7" s="149" t="s">
-        <v>256</v>
+      <c r="G7" s="148" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="150">
+      <c r="A8" s="15">
         <v>43101</v>
       </c>
-      <c r="B8" s="149"/>
+      <c r="B8" s="148"/>
       <c r="C8" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="151" t="s">
+      <c r="D8" s="149" t="s">
         <v>158</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G8" s="149" t="s">
-        <v>256</v>
+      <c r="G8" s="148" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="150">
+      <c r="A9" s="15">
         <v>43101</v>
       </c>
-      <c r="B9" s="149"/>
+      <c r="B9" s="148"/>
       <c r="C9" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="151" t="s">
+      <c r="D9" s="149" t="s">
         <v>158</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="87" t="s">
         <v>163</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G9" s="149" t="s">
-        <v>256</v>
+      <c r="G9" s="148" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="150">
+      <c r="A10" s="15">
         <v>43101</v>
       </c>
-      <c r="B10" s="149"/>
+      <c r="B10" s="148"/>
       <c r="C10" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="151" t="s">
+      <c r="D10" s="149" t="s">
         <v>158</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G10" s="149" t="s">
-        <v>256</v>
+      <c r="G10" s="148" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="150">
+      <c r="A11" s="15">
         <v>43101</v>
       </c>
-      <c r="B11" s="149"/>
+      <c r="B11" s="148"/>
       <c r="C11" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="151" t="s">
+      <c r="D11" s="149" t="s">
         <v>158</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G11" s="149" t="s">
-        <v>256</v>
+      <c r="G11" s="148" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="150">
+      <c r="A12" s="15">
         <v>43101</v>
       </c>
-      <c r="B12" s="149"/>
+      <c r="B12" s="148"/>
       <c r="C12" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="149" t="s">
-        <v>256</v>
+      <c r="G12" s="148" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="150">
+      <c r="A13" s="15">
         <v>43101</v>
       </c>
-      <c r="B13" s="149"/>
+      <c r="B13" s="148"/>
       <c r="C13" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="87" t="s">
         <v>223</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G13" s="149" t="s">
-        <v>256</v>
+      <c r="G13" s="148" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="150">
+      <c r="A14" s="15">
         <v>43101</v>
       </c>
-      <c r="B14" s="149"/>
+      <c r="B14" s="148"/>
       <c r="C14" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G14" s="149" t="s">
-        <v>256</v>
+      <c r="G14" s="148" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="150">
+      <c r="A15" s="15">
         <v>43101</v>
       </c>
-      <c r="B15" s="149"/>
+      <c r="B15" s="148"/>
       <c r="C15" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="87" t="s">
         <v>225</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G15" s="149" t="s">
-        <v>256</v>
+      <c r="G15" s="148" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="150">
+      <c r="A16" s="15">
         <v>43101</v>
       </c>
-      <c r="B16" s="149"/>
+      <c r="B16" s="148"/>
       <c r="C16" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="87" t="s">
         <v>227</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G16" s="149" t="s">
-        <v>256</v>
+      <c r="G16" s="148" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="150">
+      <c r="A17" s="15">
         <v>43101</v>
       </c>
-      <c r="B17" s="149"/>
+      <c r="B17" s="148"/>
       <c r="C17" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="87" t="s">
         <v>228</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G17" s="149" t="s">
-        <v>256</v>
+      <c r="G17" s="148" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="150">
+      <c r="A18" s="15">
         <v>43101</v>
       </c>
-      <c r="B18" s="149"/>
+      <c r="B18" s="148"/>
       <c r="C18" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G18" s="149" t="s">
-        <v>256</v>
+      <c r="G18" s="148" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -15664,7 +16062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -16371,7 +16769,7 @@
   <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
